--- a/StructureDefinition-MotivoNoPertinencia.xlsx
+++ b/StructureDefinition-MotivoNoPertinencia.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MotivoNoPertinencia.xlsx
+++ b/StructureDefinition-MotivoNoPertinencia.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MotivoNoPertinencia.xlsx
+++ b/StructureDefinition-MotivoNoPertinencia.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MotivoNoPertinencia.xlsx
+++ b/StructureDefinition-MotivoNoPertinencia.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MotivoNoPertinencia.xlsx
+++ b/StructureDefinition-MotivoNoPertinencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="166">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -312,9 +312,6 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">uri
 </t>
   </si>
@@ -334,8 +331,14 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
+  </si>
+  <si>
+    <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
@@ -1339,25 +1342,25 @@
         <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1422,15 +1425,15 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1444,7 +1447,7 @@
         <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>75</v>
@@ -1456,10 +1459,10 @@
         <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1486,11 +1489,11 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
@@ -1508,7 +1511,7 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
@@ -1520,18 +1523,18 @@
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1631,14 +1634,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1660,13 +1663,13 @@
         <v>89</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1736,10 +1739,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1753,28 +1756,28 @@
         <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -1823,7 +1826,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1835,18 +1838,18 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1946,14 +1949,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -1975,13 +1978,13 @@
         <v>89</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2051,10 +2054,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2068,28 +2071,28 @@
         <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>75</v>
@@ -2138,7 +2141,7 @@
         <v>75</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2150,18 +2153,18 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2181,19 +2184,19 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2243,7 +2246,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
@@ -2255,18 +2258,18 @@
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2280,26 +2283,26 @@
         <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>75</v>
@@ -2348,7 +2351,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2360,18 +2363,18 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2385,26 +2388,26 @@
         <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -2453,7 +2456,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2465,18 +2468,18 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2496,22 +2499,22 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
@@ -2560,7 +2563,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2572,18 +2575,18 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2597,28 +2600,28 @@
         <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
@@ -2667,7 +2670,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -2679,10 +2682,10 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-MotivoNoPertinencia.xlsx
+++ b/StructureDefinition-MotivoNoPertinencia.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
